--- a/resources/experiment 2/metrics/R2/upto time/Ictus (UPTO).xlsx
+++ b/resources/experiment 2/metrics/R2/upto time/Ictus (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-24051.46218472843</v>
+        <v>-24051.46218472848</v>
       </c>
       <c r="C2" t="n">
-        <v>-24051.46218472843</v>
+        <v>-24051.46218472848</v>
       </c>
       <c r="D2" t="n">
-        <v>-24051.46218472843</v>
+        <v>-24051.46218472848</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7832335547458884</v>
+        <v>-103.7432752122634</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7832335547458884</v>
+        <v>-148.8889595641804</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7832335547458884</v>
+        <v>-2452.143655514816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7568419419364051</v>
+        <v>0.7912295017441876</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7568416527941637</v>
+        <v>0.7941126771330138</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7568416527941637</v>
+        <v>-8976.015052853105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5475334552523472</v>
+        <v>-67.00292919653369</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5475334552523472</v>
+        <v>-101.2861620935063</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5475334552523472</v>
+        <v>-10793.11343175781</v>
       </c>
     </row>
   </sheetData>
